--- a/P1/Assets/Resources/Data/ExcelData/MissionData.xlsx
+++ b/P1/Assets/Resources/Data/ExcelData/MissionData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.234.53029"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="540" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="MissionData" sheetId="1" r:id="rId1"/>
@@ -2600,7 +2600,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -2741,7 +2741,7 @@
         <v>560</v>
       </c>
       <c r="D8" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>592</v>
@@ -2843,7 +2843,7 @@
         <v>560</v>
       </c>
       <c r="D14" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>592</v>

--- a/P1/Assets/Resources/Data/ExcelData/MissionData.xlsx
+++ b/P1/Assets/Resources/Data/ExcelData/MissionData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.234.53029"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.257.54764"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="540" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="530" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="MissionData" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="596">
   <si>
     <t>StageNumber</t>
   </si>
@@ -1804,6 +1804,12 @@
   </si>
   <si>
     <t>CompleteValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">골드 획득량 버프 얻기 </t>
+  </si>
+  <si>
+    <t>AdBuffGold</t>
   </si>
 </sst>
 </file>
@@ -2597,16 +2603,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
     <col min="1" max="1" width="16.38000011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" width="17.37999916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="23.87999916" customWidth="1" outlineLevel="0"/>
     <col min="3" max="3" width="20.62999916" customWidth="1" outlineLevel="0"/>
     <col min="4" max="4" width="18.37999916" customWidth="1" outlineLevel="0"/>
   </cols>
@@ -2752,13 +2758,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>504</v>
+        <v>594</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>555</v>
+        <v>595</v>
       </c>
       <c r="D9" s="0">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>592</v>
@@ -2769,10 +2775,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D10" s="0">
         <v>10</v>
@@ -2786,10 +2792,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>539</v>
+        <v>505</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D11" s="0">
         <v>10</v>
@@ -2803,10 +2809,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D12" s="0">
         <v>10</v>
@@ -2820,10 +2826,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D13" s="0">
         <v>10</v>
@@ -2837,13 +2843,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D14" s="0">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>592</v>
@@ -2854,13 +2860,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D15" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>592</v>
@@ -2871,10 +2877,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D16" s="0">
         <v>3</v>
@@ -2888,13 +2894,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D17" s="0">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>592</v>
@@ -2905,13 +2911,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D18" s="0">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>592</v>
@@ -2922,10 +2928,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D19" s="0">
         <v>1</v>
@@ -2939,13 +2945,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>501</v>
+        <v>551</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D20" s="0">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>592</v>
@@ -2956,13 +2962,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>552</v>
+        <v>501</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D21" s="0">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>592</v>
@@ -2973,15 +2979,32 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="D22" s="0">
+        <v>1</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="0">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>538</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C23" s="0" t="s">
         <v>554</v>
       </c>
-      <c r="D22" s="0">
+      <c r="D23" s="0">
         <v>30</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E23" s="0" t="s">
         <v>592</v>
       </c>
     </row>
